--- a/data/trans_orig/P24B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA8C8F3-FF30-42A2-A612-ACE989CD96A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE26F10F-2E52-47D7-82B7-F750157A2CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD0AB359-C9FE-4EEB-A3CA-B544F4C72A42}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{744E960C-8DE5-4FBB-8CF2-AD5E268EDF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="686">
   <si>
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>11,34%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>11,51%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
   </si>
   <si>
     <t>Igual</t>
@@ -106,28 +106,28 @@
     <t>78,08%</t>
   </si>
   <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>70,56%</t>
   </si>
   <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>75,15%</t>
   </si>
   <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
   </si>
   <si>
     <t>Más</t>
@@ -136,28 +136,28 @@
     <t>10,58%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
   </si>
   <si>
     <t>17,66%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,1939 +169,1933 @@
     <t>18,51%</t>
   </si>
   <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2015 (Tasa respuesta: 30,07%)</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
+    <t>11,1%</t>
   </si>
   <si>
     <t>14,03%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2015 (Tasa respuesta: 30,07%)</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
   </si>
 </sst>
 </file>
@@ -2513,7 +2507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC62E0C-69AE-4D91-BFF6-CE6B8CB429F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71E7A4D-3F28-444B-8A48-00027FC932EC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3252,7 +3246,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>28317</v>
+        <v>28318</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -3303,7 +3297,7 @@
         <v>109</v>
       </c>
       <c r="D17" s="7">
-        <v>105499</v>
+        <v>105500</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -3405,7 +3399,7 @@
         <v>170</v>
       </c>
       <c r="D19" s="7">
-        <v>170487</v>
+        <v>170488</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3569,7 +3563,7 @@
         <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3578,13 +3572,13 @@
         <v>4446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -3593,13 +3587,13 @@
         <v>13363</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,7 +3649,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3667,13 +3661,13 @@
         <v>14379</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -3682,13 +3676,13 @@
         <v>9210</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -3697,13 +3691,13 @@
         <v>23589</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,13 +3712,13 @@
         <v>93210</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -3733,13 +3727,13 @@
         <v>37911</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -3748,13 +3742,13 @@
         <v>131121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3763,13 @@
         <v>17739</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -3784,13 +3778,13 @@
         <v>17886</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -3799,13 +3793,13 @@
         <v>35625</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,7 +3855,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3873,13 +3867,13 @@
         <v>47536</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -3888,13 +3882,13 @@
         <v>29812</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>76</v>
@@ -3903,13 +3897,13 @@
         <v>77348</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3918,13 @@
         <v>162966</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>84</v>
@@ -3939,13 +3933,13 @@
         <v>86266</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>243</v>
@@ -3954,13 +3948,13 @@
         <v>249232</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3969,13 @@
         <v>24474</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>45</v>
@@ -3990,13 +3984,13 @@
         <v>45275</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>69</v>
@@ -4005,13 +3999,13 @@
         <v>69749</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4103,13 @@
         <v>79477</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4124,13 @@
         <v>235886</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H33" s="7">
         <v>122</v>
@@ -4145,13 +4139,13 @@
         <v>126638</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M33" s="7">
         <v>347</v>
@@ -4160,13 +4154,13 @@
         <v>362524</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4175,13 @@
         <v>37896</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>22</v>
@@ -4196,13 +4190,13 @@
         <v>22086</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>60</v>
@@ -4211,13 +4205,13 @@
         <v>59983</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4279,13 @@
         <v>215817</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="H36" s="7">
         <v>152</v>
@@ -4300,13 +4294,13 @@
         <v>159958</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>362</v>
@@ -4315,13 +4309,13 @@
         <v>375775</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4330,13 @@
         <v>975027</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>515</v>
@@ -4351,13 +4345,13 @@
         <v>526495</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M37" s="7">
         <v>1468</v>
@@ -4366,13 +4360,13 @@
         <v>1501521</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4381,13 @@
         <v>192576</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="H38" s="7">
         <v>178</v>
@@ -4405,10 +4399,10 @@
         <v>255</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M38" s="7">
         <v>362</v>
@@ -4417,13 +4411,13 @@
         <v>369453</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,7 +4473,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4503,7 +4497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EB8BBD-C897-451F-9287-73491D2B3AB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133AF10E-BF3B-4B97-AFF3-28B361B58895}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4520,7 +4514,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4625,39 +4619,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,39 +4664,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,39 +4709,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,39 +4754,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4803,13 @@
         <v>75603</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -4824,13 +4818,13 @@
         <v>46898</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -4839,13 +4833,13 @@
         <v>122501</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,13 +4854,13 @@
         <v>89593</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H9" s="7">
         <v>60</v>
@@ -4875,13 +4869,13 @@
         <v>67162</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>143</v>
@@ -4890,13 +4884,13 @@
         <v>156755</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4905,13 @@
         <v>41945</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4926,13 +4920,13 @@
         <v>37158</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -4941,13 +4935,13 @@
         <v>79102</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5009,13 @@
         <v>42589</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -5030,13 +5024,13 @@
         <v>25527</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -5045,13 +5039,13 @@
         <v>68116</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5060,13 @@
         <v>62230</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -5081,13 +5075,13 @@
         <v>40872</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -5096,13 +5090,13 @@
         <v>103103</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5111,13 @@
         <v>22218</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -5132,13 +5126,13 @@
         <v>21034</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -5147,13 +5141,13 @@
         <v>43252</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5215,13 @@
         <v>90782</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -5236,13 +5230,13 @@
         <v>59898</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -5251,13 +5245,13 @@
         <v>150680</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5266,13 @@
         <v>127515</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -5287,13 +5281,13 @@
         <v>88594</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -5302,13 +5296,13 @@
         <v>216109</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,10 +5317,10 @@
         <v>49169</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>334</v>
@@ -5356,10 +5350,10 @@
         <v>338</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5421,13 @@
         <v>32795</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -5442,13 +5436,13 @@
         <v>14434</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -5457,13 +5451,13 @@
         <v>47229</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5472,13 @@
         <v>49367</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H21" s="7">
         <v>35</v>
@@ -5493,13 +5487,13 @@
         <v>37162</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M21" s="7">
         <v>81</v>
@@ -5508,13 +5502,13 @@
         <v>86529</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5523,13 @@
         <v>9238</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5544,13 +5538,13 @@
         <v>13844</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -5559,13 +5553,13 @@
         <v>23081</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,7 +5615,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5633,13 +5627,13 @@
         <v>33893</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5648,13 +5642,13 @@
         <v>16768</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -5663,13 +5657,13 @@
         <v>50661</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5678,13 @@
         <v>37566</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5699,13 +5693,13 @@
         <v>34462</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -5714,13 +5708,13 @@
         <v>72028</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5729,13 @@
         <v>12281</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -5750,13 +5744,13 @@
         <v>15649</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -5765,13 +5759,13 @@
         <v>27930</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,7 +5821,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5839,13 +5833,13 @@
         <v>73594</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H28" s="7">
         <v>63</v>
@@ -5854,13 +5848,13 @@
         <v>68893</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M28" s="7">
         <v>131</v>
@@ -5869,13 +5863,13 @@
         <v>142487</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5884,13 @@
         <v>166815</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H29" s="7">
         <v>85</v>
@@ -5905,13 +5899,13 @@
         <v>92230</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M29" s="7">
         <v>244</v>
@@ -5920,13 +5914,13 @@
         <v>259045</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5935,13 @@
         <v>39784</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -5959,10 +5953,10 @@
         <v>104</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -5971,13 +5965,13 @@
         <v>73212</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6039,13 @@
         <v>56806</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -6060,13 +6054,13 @@
         <v>25770</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M32" s="7">
         <v>73</v>
@@ -6075,13 +6069,13 @@
         <v>82576</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6090,13 @@
         <v>197089</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>429</v>
-      </c>
       <c r="G33" s="7" t="s">
-        <v>430</v>
+        <v>224</v>
       </c>
       <c r="H33" s="7">
         <v>138</v>
@@ -6111,13 +6105,13 @@
         <v>151584</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M33" s="7">
         <v>323</v>
@@ -6126,13 +6120,13 @@
         <v>348672</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>435</v>
+        <v>84</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6141,13 @@
         <v>42259</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -6162,13 +6156,13 @@
         <v>31482</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M34" s="7">
         <v>68</v>
@@ -6177,13 +6171,13 @@
         <v>73741</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>444</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6245,13 @@
         <v>406062</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="H36" s="7">
         <v>237</v>
@@ -6266,13 +6260,13 @@
         <v>258188</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>342</v>
+        <v>443</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M36" s="7">
         <v>612</v>
@@ -6281,13 +6275,13 @@
         <v>664250</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,13 +6296,13 @@
         <v>730176</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H37" s="7">
         <v>472</v>
@@ -6317,13 +6311,13 @@
         <v>512066</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M37" s="7">
         <v>1163</v>
@@ -6332,13 +6326,13 @@
         <v>1242242</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6347,13 @@
         <v>216894</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>252</v>
+        <v>458</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H38" s="7">
         <v>189</v>
@@ -6368,13 +6362,13 @@
         <v>206016</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>464</v>
+        <v>332</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>465</v>
+        <v>309</v>
       </c>
       <c r="M38" s="7">
         <v>391</v>
@@ -6383,13 +6377,13 @@
         <v>422910</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,7 +6439,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -6469,7 +6463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA18BC6-2C68-4FBA-81EE-A2619C1BA1A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E4A4F1-8D0A-455C-AE60-DF02BA83B51E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6486,7 +6480,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6593,13 +6587,13 @@
         <v>39037</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -6608,13 +6602,13 @@
         <v>23763</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -6623,13 +6617,13 @@
         <v>62799</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6638,13 @@
         <v>42267</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>295</v>
+        <v>474</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -6659,13 +6653,13 @@
         <v>30082</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
@@ -6674,13 +6668,13 @@
         <v>72349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,13 +6689,13 @@
         <v>24191</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>488</v>
+        <v>282</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -6710,13 +6704,13 @@
         <v>19869</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -6725,13 +6719,13 @@
         <v>44060</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,13 +6793,13 @@
         <v>32973</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>307</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -6814,13 +6808,13 @@
         <v>27974</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>426</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -6829,13 +6823,13 @@
         <v>60947</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6844,13 @@
         <v>156706</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -6865,13 +6859,13 @@
         <v>96775</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M9" s="7">
         <v>238</v>
@@ -6880,13 +6874,13 @@
         <v>253480</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6895,13 @@
         <v>18346</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -6916,13 +6910,13 @@
         <v>15123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -6931,13 +6925,13 @@
         <v>33469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,13 +6999,13 @@
         <v>9885</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -7020,13 +7014,13 @@
         <v>13265</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -7035,13 +7029,13 @@
         <v>23150</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>530</v>
+        <v>173</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7050,13 @@
         <v>77041</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -7071,13 +7065,13 @@
         <v>63215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -7086,13 +7080,13 @@
         <v>140256</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7101,13 @@
         <v>9405</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7122,13 +7116,13 @@
         <v>4923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -7137,13 +7131,13 @@
         <v>14328</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>426</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7205,13 @@
         <v>44285</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -7226,13 +7220,13 @@
         <v>35648</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>552</v>
+        <v>420</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -7241,13 +7235,13 @@
         <v>79933</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>555</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7256,13 @@
         <v>82898</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -7277,13 +7271,13 @@
         <v>53153</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -7292,13 +7286,13 @@
         <v>136050</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7307,13 @@
         <v>12104</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>227</v>
+        <v>557</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -7328,13 +7322,13 @@
         <v>19957</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -7343,10 +7337,10 @@
         <v>32061</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>60</v>
@@ -7417,13 +7411,13 @@
         <v>10738</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>540</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7432,13 +7426,13 @@
         <v>8920</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -7447,13 +7441,13 @@
         <v>19658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,13 +7462,13 @@
         <v>69051</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H21" s="7">
         <v>47</v>
@@ -7483,13 +7477,13 @@
         <v>44078</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -7498,13 +7492,13 @@
         <v>113129</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7513,13 @@
         <v>3320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>591</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -7534,13 +7528,13 @@
         <v>2758</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -7549,13 +7543,13 @@
         <v>6078</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,7 +7605,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7623,13 +7617,13 @@
         <v>11264</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>393</v>
+        <v>589</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>599</v>
+        <v>90</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7638,13 +7632,13 @@
         <v>5679</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -7653,13 +7647,13 @@
         <v>16943</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,13 +7668,13 @@
         <v>54918</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -7689,13 +7683,13 @@
         <v>56056</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -7704,13 +7698,13 @@
         <v>110975</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,13 +7719,13 @@
         <v>21044</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>615</v>
+        <v>159</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>228</v>
+        <v>606</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -7740,13 +7734,13 @@
         <v>10305</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>617</v>
+        <v>213</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>62</v>
+        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -7755,13 +7749,13 @@
         <v>31349</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,7 +7811,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7829,13 +7823,13 @@
         <v>58852</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -7844,13 +7838,13 @@
         <v>45387</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>394</v>
+        <v>615</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="M28" s="7">
         <v>94</v>
@@ -7859,13 +7853,13 @@
         <v>104239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,13 +7874,13 @@
         <v>120722</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="H29" s="7">
         <v>101</v>
@@ -7895,13 +7889,13 @@
         <v>104610</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="M29" s="7">
         <v>204</v>
@@ -7910,13 +7904,13 @@
         <v>225331</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,13 +7925,13 @@
         <v>17156</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -7946,13 +7940,13 @@
         <v>21395</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -7961,13 +7955,13 @@
         <v>38550</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,13 +8029,13 @@
         <v>50902</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>241</v>
+        <v>640</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="H32" s="7">
         <v>36</v>
@@ -8050,13 +8044,13 @@
         <v>37599</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>256</v>
+        <v>642</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="M32" s="7">
         <v>85</v>
@@ -8065,13 +8059,13 @@
         <v>88500</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>388</v>
+        <v>647</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8086,13 +8080,13 @@
         <v>168930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H33" s="7">
         <v>141</v>
@@ -8101,13 +8095,13 @@
         <v>147505</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M33" s="7">
         <v>301</v>
@@ -8116,13 +8110,13 @@
         <v>316435</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,13 +8131,13 @@
         <v>34306</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="H34" s="7">
         <v>26</v>
@@ -8152,13 +8146,13 @@
         <v>28245</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M34" s="7">
         <v>56</v>
@@ -8167,10 +8161,10 @@
         <v>62551</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>104</v>
@@ -8241,13 +8235,13 @@
         <v>257936</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>671</v>
+        <v>39</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="H36" s="7">
         <v>188</v>
@@ -8256,13 +8250,13 @@
         <v>198234</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="M36" s="7">
         <v>429</v>
@@ -8274,10 +8268,10 @@
         <v>338</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8292,13 +8286,13 @@
         <v>772532</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H37" s="7">
         <v>582</v>
@@ -8307,13 +8301,13 @@
         <v>595473</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>169</v>
+        <v>675</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="M37" s="7">
         <v>1302</v>
@@ -8322,13 +8316,13 @@
         <v>1368005</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8343,13 +8337,13 @@
         <v>139871</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H38" s="7">
         <v>117</v>
@@ -8358,13 +8352,13 @@
         <v>122575</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>312</v>
+        <v>682</v>
       </c>
       <c r="M38" s="7">
         <v>244</v>
@@ -8373,13 +8367,13 @@
         <v>262446</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>43</v>
+        <v>683</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>685</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8435,7 +8429,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE26F10F-2E52-47D7-82B7-F750157A2CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA61BAF-FAF1-47CF-907D-EAE9F7F337AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{744E960C-8DE5-4FBB-8CF2-AD5E268EDF0A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB0982BB-CE7F-49E6-9FB0-78593C25879C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="681">
   <si>
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,2026 +76,2011 @@
     <t>11,34%</t>
   </si>
   <si>
-    <t>5,86%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>Igual</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>Más</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>Igual</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>Más</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>44,59%</t>
   </si>
   <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2015 (Tasa respuesta: 30,07%)</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>24,55%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
   </si>
   <si>
     <t>65,56%</t>
   </si>
   <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
 </sst>
 </file>
@@ -2507,7 +2492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71E7A4D-3F28-444B-8A48-00027FC932EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D5CB53-039A-4AC0-9DCD-E74D9CF968C8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3058,13 +3043,13 @@
         <v>23111</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
@@ -3073,13 +3058,13 @@
         <v>46967</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3079,13 @@
         <v>103356</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -3109,13 +3094,13 @@
         <v>52446</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>153</v>
@@ -3124,13 +3109,13 @@
         <v>155802</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3130,13 @@
         <v>20627</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -3160,13 +3145,13 @@
         <v>19332</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -3175,13 +3160,13 @@
         <v>39959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,7 +3222,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3246,16 +3231,16 @@
         <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>28318</v>
+        <v>28317</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3264,13 +3249,13 @@
         <v>19047</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -3279,13 +3264,13 @@
         <v>47364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,16 +3282,16 @@
         <v>109</v>
       </c>
       <c r="D17" s="7">
-        <v>105500</v>
+        <v>105499</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
@@ -3315,13 +3300,13 @@
         <v>62763</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
@@ -3330,13 +3315,13 @@
         <v>168262</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3336,13 @@
         <v>36670</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -3366,13 +3351,13 @@
         <v>23410</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -3381,13 +3366,13 @@
         <v>60080</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,7 +3384,7 @@
         <v>170</v>
       </c>
       <c r="D19" s="7">
-        <v>170488</v>
+        <v>170487</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3443,7 +3428,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3455,13 +3440,13 @@
         <v>11610</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -3470,13 +3455,13 @@
         <v>11797</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -3485,13 +3470,13 @@
         <v>23407</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3491,13 @@
         <v>63802</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>42</v>
@@ -3521,13 +3506,13 @@
         <v>43283</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>107</v>
@@ -3536,13 +3521,13 @@
         <v>107085</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3542,13 @@
         <v>8917</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3572,13 +3557,13 @@
         <v>4446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -3587,13 +3572,13 @@
         <v>13363</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,7 +3634,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3661,13 +3646,13 @@
         <v>14379</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -3676,13 +3661,13 @@
         <v>9210</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -3691,13 +3676,13 @@
         <v>23589</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3697,13 @@
         <v>93210</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -3727,13 +3712,13 @@
         <v>37911</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -3742,13 +3727,13 @@
         <v>131121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3748,13 @@
         <v>17739</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -3778,13 +3763,13 @@
         <v>17886</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -3793,13 +3778,13 @@
         <v>35625</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,7 +3840,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3867,13 +3852,13 @@
         <v>47536</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -3882,13 +3867,13 @@
         <v>29812</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M28" s="7">
         <v>76</v>
@@ -3897,13 +3882,13 @@
         <v>77348</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3903,13 @@
         <v>162966</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H29" s="7">
         <v>84</v>
@@ -3933,13 +3918,13 @@
         <v>86266</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M29" s="7">
         <v>243</v>
@@ -3948,13 +3933,13 @@
         <v>249232</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3954,13 @@
         <v>24474</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>45</v>
@@ -3984,13 +3969,13 @@
         <v>45275</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>69</v>
@@ -3999,13 +3984,13 @@
         <v>69749</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>116</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,7 +4046,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4073,13 +4058,13 @@
         <v>41833</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H32" s="7">
         <v>35</v>
@@ -4088,13 +4073,13 @@
         <v>37644</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M32" s="7">
         <v>77</v>
@@ -4103,13 +4088,13 @@
         <v>79477</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4109,13 @@
         <v>235886</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H33" s="7">
         <v>122</v>
@@ -4139,13 +4124,13 @@
         <v>126638</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M33" s="7">
         <v>347</v>
@@ -4154,13 +4139,13 @@
         <v>362524</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4160,13 @@
         <v>37896</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H34" s="7">
         <v>22</v>
@@ -4190,13 +4175,13 @@
         <v>22086</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M34" s="7">
         <v>60</v>
@@ -4205,13 +4190,13 @@
         <v>59983</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4264,13 @@
         <v>215817</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H36" s="7">
         <v>152</v>
@@ -4294,13 +4279,13 @@
         <v>159958</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M36" s="7">
         <v>362</v>
@@ -4309,13 +4294,13 @@
         <v>375775</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4315,13 @@
         <v>975027</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>515</v>
@@ -4345,13 +4330,13 @@
         <v>526495</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>1468</v>
@@ -4360,13 +4345,13 @@
         <v>1501521</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,13 +4366,13 @@
         <v>192576</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="H38" s="7">
         <v>178</v>
@@ -4396,13 +4381,13 @@
         <v>176877</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M38" s="7">
         <v>362</v>
@@ -4411,13 +4396,13 @@
         <v>369453</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,7 +4458,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4497,7 +4482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133AF10E-BF3B-4B97-AFF3-28B361B58895}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38B0649-D6B5-452B-8B58-F56745FF052A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4514,7 +4499,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4619,39 +4604,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,39 +4649,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,39 +4694,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,39 +4739,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4788,13 @@
         <v>75603</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -4818,13 +4803,13 @@
         <v>46898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -4833,13 +4818,13 @@
         <v>122501</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4839,13 @@
         <v>89593</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>60</v>
@@ -4869,13 +4854,13 @@
         <v>67162</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>143</v>
@@ -4884,13 +4869,13 @@
         <v>156755</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4890,13 @@
         <v>41945</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4920,13 +4905,13 @@
         <v>37158</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -4935,13 +4920,13 @@
         <v>79102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +4994,13 @@
         <v>42589</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -5024,13 +5009,13 @@
         <v>25527</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -5039,13 +5024,13 @@
         <v>68116</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5045,13 @@
         <v>62230</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -5075,13 +5060,13 @@
         <v>40872</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -5090,13 +5075,13 @@
         <v>103103</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5096,13 @@
         <v>22218</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -5126,13 +5111,13 @@
         <v>21034</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -5141,13 +5126,13 @@
         <v>43252</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,7 +5188,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5215,13 +5200,13 @@
         <v>90782</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -5230,13 +5215,13 @@
         <v>59898</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -5245,13 +5230,13 @@
         <v>150680</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5251,13 @@
         <v>127515</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -5281,13 +5266,13 @@
         <v>88594</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -5296,13 +5281,13 @@
         <v>216109</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5302,13 @@
         <v>49169</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -5332,13 +5317,13 @@
         <v>53422</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M18" s="7">
         <v>91</v>
@@ -5347,13 +5332,13 @@
         <v>102591</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,7 +5394,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5421,13 +5406,13 @@
         <v>32795</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -5436,13 +5421,13 @@
         <v>14434</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -5451,13 +5436,13 @@
         <v>47229</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5457,13 @@
         <v>49367</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H21" s="7">
         <v>35</v>
@@ -5487,13 +5472,13 @@
         <v>37162</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>353</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>354</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>81</v>
@@ -5502,13 +5487,13 @@
         <v>86529</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5508,13 @@
         <v>9238</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5538,13 +5523,13 @@
         <v>13844</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -5553,13 +5538,13 @@
         <v>23081</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,7 +5600,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5627,13 +5612,13 @@
         <v>33893</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>367</v>
+        <v>265</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5642,13 +5627,13 @@
         <v>16768</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -5657,13 +5642,13 @@
         <v>50661</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5663,13 @@
         <v>37566</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5693,13 +5678,13 @@
         <v>34462</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -5708,13 +5693,13 @@
         <v>72028</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5714,13 @@
         <v>12281</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>387</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -5744,13 +5729,13 @@
         <v>15649</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>388</v>
+        <v>50</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -5759,13 +5744,13 @@
         <v>27930</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>13</v>
+        <v>384</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,7 +5806,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5833,13 +5818,13 @@
         <v>73594</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H28" s="7">
         <v>63</v>
@@ -5848,13 +5833,13 @@
         <v>68893</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M28" s="7">
         <v>131</v>
@@ -5863,13 +5848,13 @@
         <v>142487</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>400</v>
+        <v>47</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +5869,13 @@
         <v>166815</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="H29" s="7">
         <v>85</v>
@@ -5899,13 +5884,13 @@
         <v>92230</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="M29" s="7">
         <v>244</v>
@@ -5914,13 +5899,13 @@
         <v>259045</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,13 +5920,13 @@
         <v>39784</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>413</v>
+        <v>39</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -5950,13 +5935,13 @@
         <v>33427</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>254</v>
+        <v>405</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -5965,13 +5950,13 @@
         <v>73212</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>416</v>
+        <v>61</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,7 +6012,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6039,13 +6024,13 @@
         <v>56806</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>420</v>
+        <v>317</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -6054,13 +6039,13 @@
         <v>25770</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>422</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="M32" s="7">
         <v>73</v>
@@ -6069,13 +6054,13 @@
         <v>82576</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,13 +6075,13 @@
         <v>197089</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>224</v>
+        <v>417</v>
       </c>
       <c r="H33" s="7">
         <v>138</v>
@@ -6105,13 +6090,13 @@
         <v>151584</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="M33" s="7">
         <v>323</v>
@@ -6120,13 +6105,13 @@
         <v>348672</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>84</v>
+        <v>422</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6126,13 @@
         <v>42259</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>436</v>
+        <v>179</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -6156,13 +6141,13 @@
         <v>31482</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>438</v>
+        <v>31</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="M34" s="7">
         <v>68</v>
@@ -6171,13 +6156,13 @@
         <v>73741</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>360</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,13 +6230,13 @@
         <v>406062</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>363</v>
+        <v>431</v>
       </c>
       <c r="H36" s="7">
         <v>237</v>
@@ -6260,13 +6245,13 @@
         <v>258188</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="M36" s="7">
         <v>612</v>
@@ -6275,13 +6260,13 @@
         <v>664250</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6281,13 @@
         <v>730176</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H37" s="7">
         <v>472</v>
@@ -6311,13 +6296,13 @@
         <v>512066</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="M37" s="7">
         <v>1163</v>
@@ -6326,13 +6311,13 @@
         <v>1242242</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6332,13 @@
         <v>216894</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="H38" s="7">
         <v>189</v>
@@ -6362,13 +6347,13 @@
         <v>206016</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>332</v>
+        <v>451</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>309</v>
+        <v>452</v>
       </c>
       <c r="M38" s="7">
         <v>391</v>
@@ -6377,13 +6362,13 @@
         <v>422910</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,7 +6424,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -6463,7 +6448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E4A4F1-8D0A-455C-AE60-DF02BA83B51E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B850FFA0-6E3E-4A47-8FAA-1177C980D301}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6480,7 +6465,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6587,13 +6572,13 @@
         <v>39037</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -6602,13 +6587,13 @@
         <v>23763</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -6617,13 +6602,13 @@
         <v>62799</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6623,13 @@
         <v>42267</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>296</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -6653,13 +6638,13 @@
         <v>30082</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
@@ -6668,13 +6653,13 @@
         <v>72349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6674,13 @@
         <v>24191</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>282</v>
+        <v>475</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -6704,13 +6689,13 @@
         <v>19869</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -6719,13 +6704,13 @@
         <v>44060</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6778,13 @@
         <v>32973</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>307</v>
+        <v>484</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -6808,13 +6793,13 @@
         <v>27974</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -6823,13 +6808,13 @@
         <v>60947</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6829,13 @@
         <v>156706</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -6859,13 +6844,13 @@
         <v>96775</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M9" s="7">
         <v>238</v>
@@ -6874,13 +6859,13 @@
         <v>253480</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6880,13 @@
         <v>18346</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -6910,13 +6895,13 @@
         <v>15123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -6925,13 +6910,13 @@
         <v>33469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,13 +6984,13 @@
         <v>9885</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -7014,13 +6999,13 @@
         <v>13265</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -7029,13 +7014,13 @@
         <v>23150</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,13 +7035,13 @@
         <v>77041</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -7065,13 +7050,13 @@
         <v>63215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -7080,13 +7065,13 @@
         <v>140256</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>525</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7086,13 @@
         <v>9405</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7116,13 +7101,13 @@
         <v>4923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -7131,13 +7116,13 @@
         <v>14328</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,7 +7178,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7205,13 +7190,13 @@
         <v>44285</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -7220,13 +7205,13 @@
         <v>35648</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>420</v>
+        <v>539</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -7235,13 +7220,13 @@
         <v>79933</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>542</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7241,13 @@
         <v>82898</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -7271,13 +7256,13 @@
         <v>53153</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -7286,13 +7271,13 @@
         <v>136050</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7292,13 @@
         <v>12104</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>557</v>
+        <v>514</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>559</v>
+        <v>428</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -7322,13 +7307,13 @@
         <v>19957</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>393</v>
+        <v>556</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -7337,13 +7322,13 @@
         <v>32061</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>60</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,7 +7384,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7411,13 +7396,13 @@
         <v>10738</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7426,13 +7411,13 @@
         <v>8920</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -7441,13 +7426,13 @@
         <v>19658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7447,13 @@
         <v>69051</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H21" s="7">
         <v>47</v>
@@ -7477,13 +7462,13 @@
         <v>44078</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -7492,13 +7477,13 @@
         <v>113129</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,13 +7498,13 @@
         <v>3320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>580</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -7528,13 +7513,13 @@
         <v>2758</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -7543,13 +7528,13 @@
         <v>6078</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,7 +7590,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7617,13 +7602,13 @@
         <v>11264</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7632,13 +7617,13 @@
         <v>5679</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -7647,13 +7632,13 @@
         <v>16943</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,13 +7653,13 @@
         <v>54918</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -7683,13 +7668,13 @@
         <v>56056</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -7698,13 +7683,13 @@
         <v>110975</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,13 +7704,13 @@
         <v>21044</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>159</v>
+        <v>604</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>606</v>
+        <v>407</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -7734,13 +7719,13 @@
         <v>10305</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>213</v>
+        <v>606</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -7749,10 +7734,10 @@
         <v>31349</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>611</v>
@@ -7811,7 +7796,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7853,13 +7838,13 @@
         <v>104239</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7859,13 @@
         <v>120722</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>623</v>
       </c>
       <c r="H29" s="7">
         <v>101</v>
@@ -7889,13 +7874,13 @@
         <v>104610</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>625</v>
+        <v>444</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>626</v>
+        <v>247</v>
       </c>
       <c r="M29" s="7">
         <v>204</v>
@@ -7904,13 +7889,13 @@
         <v>225331</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,13 +7910,13 @@
         <v>17156</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>632</v>
+        <v>448</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -7940,13 +7925,13 @@
         <v>21395</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -7955,13 +7940,13 @@
         <v>38550</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,7 +8002,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8029,13 +8014,13 @@
         <v>50902</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H32" s="7">
         <v>36</v>
@@ -8044,13 +8029,13 @@
         <v>37599</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="M32" s="7">
         <v>85</v>
@@ -8059,13 +8044,13 @@
         <v>88500</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8065,13 @@
         <v>168930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="H33" s="7">
         <v>141</v>
@@ -8095,13 +8080,13 @@
         <v>147505</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="M33" s="7">
         <v>301</v>
@@ -8110,13 +8095,13 @@
         <v>316435</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,13 +8116,13 @@
         <v>34306</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="H34" s="7">
         <v>26</v>
@@ -8146,13 +8131,13 @@
         <v>28245</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="M34" s="7">
         <v>56</v>
@@ -8161,13 +8146,13 @@
         <v>62551</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>104</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,13 +8220,13 @@
         <v>257936</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>39</v>
+        <v>662</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H36" s="7">
         <v>188</v>
@@ -8250,13 +8235,13 @@
         <v>198234</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>669</v>
+        <v>154</v>
       </c>
       <c r="M36" s="7">
         <v>429</v>
@@ -8265,13 +8250,13 @@
         <v>456170</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>671</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8286,13 +8271,13 @@
         <v>772532</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>672</v>
+        <v>59</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>169</v>
+        <v>668</v>
       </c>
       <c r="H37" s="7">
         <v>582</v>
@@ -8301,13 +8286,13 @@
         <v>595473</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M37" s="7">
         <v>1302</v>
@@ -8316,13 +8301,13 @@
         <v>1368005</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8337,13 +8322,13 @@
         <v>139871</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>157</v>
+        <v>676</v>
       </c>
       <c r="H38" s="7">
         <v>117</v>
@@ -8352,13 +8337,13 @@
         <v>122575</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>682</v>
+        <v>447</v>
       </c>
       <c r="M38" s="7">
         <v>244</v>
@@ -8367,13 +8352,13 @@
         <v>262446</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8429,7 +8414,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA61BAF-FAF1-47CF-907D-EAE9F7F337AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5F06476-B29E-40A2-8677-D106FC960BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB0982BB-CE7F-49E6-9FB0-78593C25879C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1BB81A49-3ABA-4DCA-9189-B6E324DFF489}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="688">
   <si>
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>11,34%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
   </si>
   <si>
     <t>11,51%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
   </si>
   <si>
     <t>Igual</t>
@@ -106,1981 +106,2002 @@
     <t>78,08%</t>
   </si>
   <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>Más</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
     <t>69,68%</t>
   </si>
   <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>Más</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
   <si>
     <t>66,01%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>63,33%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>68,43%</t>
   </si>
   <si>
     <t>65,56%</t>
   </si>
   <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
 </sst>
 </file>
@@ -2492,7 +2513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D5CB53-039A-4AC0-9DCD-E74D9CF968C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A4AB0-D17C-4D7D-8176-E63100EA8497}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3043,13 +3064,13 @@
         <v>23111</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
@@ -3058,13 +3079,13 @@
         <v>46967</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3100,13 @@
         <v>103356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -3094,13 +3115,13 @@
         <v>52446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>153</v>
@@ -3109,13 +3130,13 @@
         <v>155802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3151,13 @@
         <v>20627</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -3145,13 +3166,13 @@
         <v>19332</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -3160,13 +3181,13 @@
         <v>39959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,7 +3243,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3234,13 +3255,13 @@
         <v>28317</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3249,13 +3270,13 @@
         <v>19047</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -3264,13 +3285,13 @@
         <v>47364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3306,13 @@
         <v>105499</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
@@ -3300,13 +3321,13 @@
         <v>62763</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
@@ -3315,13 +3336,13 @@
         <v>168262</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3357,13 @@
         <v>36670</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -3351,13 +3372,13 @@
         <v>23410</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -3366,13 +3387,13 @@
         <v>60080</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,7 +3449,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3440,13 +3461,13 @@
         <v>11610</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -3455,13 +3476,13 @@
         <v>11797</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -3470,13 +3491,13 @@
         <v>23407</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3512,13 @@
         <v>63802</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>42</v>
@@ -3506,13 +3527,13 @@
         <v>43283</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>107</v>
@@ -3521,13 +3542,13 @@
         <v>107085</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3563,13 @@
         <v>8917</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3557,13 +3578,13 @@
         <v>4446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -3572,13 +3593,13 @@
         <v>13363</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,7 +3655,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3646,13 +3667,13 @@
         <v>14379</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -3661,13 +3682,13 @@
         <v>9210</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -3676,13 +3697,13 @@
         <v>23589</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3718,13 @@
         <v>93210</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -3712,13 +3733,13 @@
         <v>37911</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -3727,13 +3748,13 @@
         <v>131121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3769,13 @@
         <v>17739</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -3763,13 +3784,13 @@
         <v>17886</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -3778,13 +3799,13 @@
         <v>35625</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,7 +3861,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3852,13 +3873,13 @@
         <v>47536</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -3867,13 +3888,13 @@
         <v>29812</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>76</v>
@@ -3882,13 +3903,13 @@
         <v>77348</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3924,13 @@
         <v>162966</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>84</v>
@@ -3918,13 +3939,13 @@
         <v>86266</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>243</v>
@@ -3933,13 +3954,13 @@
         <v>249232</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3975,13 @@
         <v>24474</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>45</v>
@@ -3969,13 +3990,13 @@
         <v>45275</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>69</v>
@@ -3984,13 +4005,13 @@
         <v>69749</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,7 +4067,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4058,13 +4079,13 @@
         <v>41833</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>35</v>
@@ -4073,13 +4094,13 @@
         <v>37644</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>77</v>
@@ -4088,13 +4109,13 @@
         <v>79477</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4130,13 @@
         <v>235886</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H33" s="7">
         <v>122</v>
@@ -4124,13 +4145,13 @@
         <v>126638</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M33" s="7">
         <v>347</v>
@@ -4139,13 +4160,13 @@
         <v>362524</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4181,13 @@
         <v>37896</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>22</v>
@@ -4175,13 +4196,13 @@
         <v>22086</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>60</v>
@@ -4190,13 +4211,13 @@
         <v>59983</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4285,13 @@
         <v>215817</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="H36" s="7">
         <v>152</v>
@@ -4279,13 +4300,13 @@
         <v>159958</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>362</v>
@@ -4294,13 +4315,13 @@
         <v>375775</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4336,13 @@
         <v>975027</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>515</v>
@@ -4330,13 +4351,13 @@
         <v>526495</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M37" s="7">
         <v>1468</v>
@@ -4345,13 +4366,13 @@
         <v>1501521</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4387,13 @@
         <v>192576</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H38" s="7">
         <v>178</v>
@@ -4381,13 +4402,13 @@
         <v>176877</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M38" s="7">
         <v>362</v>
@@ -4396,13 +4417,13 @@
         <v>369453</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,7 +4479,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4482,7 +4503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38B0649-D6B5-452B-8B58-F56745FF052A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9271E9-C915-4497-92D9-E4F543F6C5B3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4499,7 +4520,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4604,39 +4625,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,39 +4670,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,39 +4715,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,39 +4760,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4809,13 @@
         <v>75603</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -4803,13 +4824,13 @@
         <v>46898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -4818,13 +4839,13 @@
         <v>122501</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4860,13 @@
         <v>89593</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H9" s="7">
         <v>60</v>
@@ -4854,13 +4875,13 @@
         <v>67162</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>143</v>
@@ -4869,13 +4890,13 @@
         <v>156755</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4911,13 @@
         <v>41945</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4905,13 +4926,13 @@
         <v>37158</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -4920,13 +4941,13 @@
         <v>79102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +5015,13 @@
         <v>42589</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -5009,13 +5030,13 @@
         <v>25527</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -5024,13 +5045,13 @@
         <v>68116</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5066,13 @@
         <v>62230</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -5060,13 +5081,13 @@
         <v>40872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -5075,13 +5096,13 @@
         <v>103103</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5117,13 @@
         <v>22218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -5111,13 +5132,13 @@
         <v>21034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -5126,13 +5147,13 @@
         <v>43252</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,7 +5209,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5200,13 +5221,13 @@
         <v>90782</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -5215,13 +5236,13 @@
         <v>59898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -5230,13 +5251,13 @@
         <v>150680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5272,13 @@
         <v>127515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -5266,13 +5287,13 @@
         <v>88594</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -5281,13 +5302,13 @@
         <v>216109</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5323,13 @@
         <v>49169</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>332</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -5317,13 +5338,13 @@
         <v>53422</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M18" s="7">
         <v>91</v>
@@ -5332,13 +5353,13 @@
         <v>102591</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,7 +5415,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5406,13 +5427,13 @@
         <v>32795</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -5421,13 +5442,13 @@
         <v>14434</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -5436,13 +5457,13 @@
         <v>47229</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5478,13 @@
         <v>49367</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H21" s="7">
         <v>35</v>
@@ -5472,13 +5493,13 @@
         <v>37162</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>355</v>
       </c>
       <c r="M21" s="7">
         <v>81</v>
@@ -5487,13 +5508,13 @@
         <v>86529</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5529,13 @@
         <v>9238</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5523,13 +5544,13 @@
         <v>13844</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -5538,13 +5559,13 @@
         <v>23081</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>38</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,7 +5621,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5612,13 +5633,13 @@
         <v>33893</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>265</v>
+        <v>368</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5627,13 +5648,13 @@
         <v>16768</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -5642,13 +5663,13 @@
         <v>50661</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5684,13 @@
         <v>37566</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5678,13 +5699,13 @@
         <v>34462</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -5693,13 +5714,13 @@
         <v>72028</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5735,13 @@
         <v>12281</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>388</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -5729,13 +5750,13 @@
         <v>15649</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>50</v>
+        <v>389</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -5744,13 +5765,13 @@
         <v>27930</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,7 +5827,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5818,13 +5839,13 @@
         <v>73594</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="H28" s="7">
         <v>63</v>
@@ -5833,13 +5854,13 @@
         <v>68893</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="M28" s="7">
         <v>131</v>
@@ -5848,13 +5869,13 @@
         <v>142487</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>47</v>
+        <v>402</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5890,13 @@
         <v>166815</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="H29" s="7">
         <v>85</v>
@@ -5884,13 +5905,13 @@
         <v>92230</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="M29" s="7">
         <v>244</v>
@@ -5899,13 +5920,13 @@
         <v>259045</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5941,13 @@
         <v>39784</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>415</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -5935,13 +5956,13 @@
         <v>33427</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>405</v>
+        <v>232</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -5950,13 +5971,13 @@
         <v>73212</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,7 +6033,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6024,13 +6045,13 @@
         <v>56806</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>317</v>
+        <v>421</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -6039,13 +6060,13 @@
         <v>25770</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>423</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="M32" s="7">
         <v>73</v>
@@ -6054,13 +6075,13 @@
         <v>82576</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6096,13 @@
         <v>197089</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="H33" s="7">
         <v>138</v>
@@ -6090,13 +6111,13 @@
         <v>151584</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="M33" s="7">
         <v>323</v>
@@ -6105,13 +6126,13 @@
         <v>348672</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6147,13 @@
         <v>42259</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>179</v>
+        <v>439</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -6141,13 +6162,13 @@
         <v>31482</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>31</v>
+        <v>440</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="M34" s="7">
         <v>68</v>
@@ -6156,13 +6177,13 @@
         <v>73741</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>98</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,13 +6251,13 @@
         <v>406062</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="H36" s="7">
         <v>237</v>
@@ -6245,13 +6266,13 @@
         <v>258188</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>432</v>
+        <v>342</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="M36" s="7">
         <v>612</v>
@@ -6260,13 +6281,13 @@
         <v>664250</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6302,13 @@
         <v>730176</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="H37" s="7">
         <v>472</v>
@@ -6296,13 +6317,13 @@
         <v>512066</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="M37" s="7">
         <v>1163</v>
@@ -6311,13 +6332,13 @@
         <v>1242242</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6353,13 @@
         <v>216894</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>448</v>
+        <v>252</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="H38" s="7">
         <v>189</v>
@@ -6347,13 +6368,13 @@
         <v>206016</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="M38" s="7">
         <v>391</v>
@@ -6362,13 +6383,13 @@
         <v>422910</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,7 +6445,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -6448,7 +6469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B850FFA0-6E3E-4A47-8FAA-1177C980D301}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7539C5B-CDAE-4DF4-90E6-AD3DA01817D0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6465,7 +6486,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6572,13 +6593,13 @@
         <v>39037</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -6587,13 +6608,13 @@
         <v>23763</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -6602,13 +6623,13 @@
         <v>62799</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6644,13 @@
         <v>42267</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -6638,13 +6659,13 @@
         <v>30082</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
@@ -6653,13 +6674,13 @@
         <v>72349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,13 +6695,13 @@
         <v>24191</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -6689,13 +6710,13 @@
         <v>19869</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -6704,13 +6725,13 @@
         <v>44060</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6799,13 @@
         <v>32973</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -6793,13 +6814,13 @@
         <v>27974</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -6808,13 +6829,13 @@
         <v>60947</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,13 +6850,13 @@
         <v>156706</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -6844,13 +6865,13 @@
         <v>96775</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="M9" s="7">
         <v>238</v>
@@ -6859,13 +6880,13 @@
         <v>253480</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,13 +6901,13 @@
         <v>18346</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -6895,13 +6916,13 @@
         <v>15123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -6910,13 +6931,13 @@
         <v>33469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +7005,13 @@
         <v>9885</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -6999,13 +7020,13 @@
         <v>13265</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -7014,13 +7035,13 @@
         <v>23150</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>88</v>
+        <v>530</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7056,13 @@
         <v>77041</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -7050,13 +7071,13 @@
         <v>63215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -7065,13 +7086,13 @@
         <v>140256</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>525</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7107,13 @@
         <v>9405</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>542</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7101,13 +7122,13 @@
         <v>4923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -7116,13 +7137,13 @@
         <v>14328</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7178,7 +7199,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7190,13 +7211,13 @@
         <v>44285</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -7205,13 +7226,13 @@
         <v>35648</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -7220,13 +7241,13 @@
         <v>79933</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7262,13 @@
         <v>82898</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -7256,13 +7277,13 @@
         <v>53153</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -7271,13 +7292,13 @@
         <v>136050</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,13 +7313,13 @@
         <v>12104</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>514</v>
+        <v>227</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>428</v>
+        <v>567</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -7307,13 +7328,13 @@
         <v>19957</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>556</v>
+        <v>395</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -7322,13 +7343,13 @@
         <v>32061</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>559</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,7 +7405,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7396,13 +7417,13 @@
         <v>10738</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>560</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7411,13 +7432,13 @@
         <v>8920</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -7426,13 +7447,13 @@
         <v>19658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,13 +7468,13 @@
         <v>69051</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="H21" s="7">
         <v>47</v>
@@ -7462,13 +7483,13 @@
         <v>44078</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -7477,13 +7498,13 @@
         <v>113129</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,13 +7519,13 @@
         <v>3320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -7513,13 +7534,13 @@
         <v>2758</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -7528,13 +7549,13 @@
         <v>6078</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,7 +7611,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7602,13 +7623,13 @@
         <v>11264</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>587</v>
+        <v>393</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7617,13 +7638,13 @@
         <v>5679</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -7632,13 +7653,13 @@
         <v>16943</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7674,13 @@
         <v>54918</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -7668,13 +7689,13 @@
         <v>56056</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -7683,13 +7704,13 @@
         <v>110975</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>612</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,13 +7725,13 @@
         <v>21044</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>407</v>
+        <v>228</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -7719,13 +7740,13 @@
         <v>10305</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>608</v>
+        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -7734,13 +7755,13 @@
         <v>31349</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>610</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,7 +7817,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7808,13 +7829,13 @@
         <v>58852</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -7823,13 +7844,13 @@
         <v>45387</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>615</v>
+        <v>394</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="M28" s="7">
         <v>94</v>
@@ -7838,13 +7859,13 @@
         <v>104239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>314</v>
+        <v>626</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>433</v>
+        <v>627</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,13 +7880,13 @@
         <v>120722</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="H29" s="7">
         <v>101</v>
@@ -7874,13 +7895,13 @@
         <v>104610</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>444</v>
+        <v>633</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>247</v>
+        <v>634</v>
       </c>
       <c r="M29" s="7">
         <v>204</v>
@@ -7889,13 +7910,13 @@
         <v>225331</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,13 +7931,13 @@
         <v>17156</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -7925,13 +7946,13 @@
         <v>21395</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -7940,13 +7961,13 @@
         <v>38550</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,7 +8023,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8014,13 +8035,13 @@
         <v>50902</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>635</v>
+        <v>241</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="H32" s="7">
         <v>36</v>
@@ -8029,13 +8050,13 @@
         <v>37599</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>637</v>
+        <v>256</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="M32" s="7">
         <v>85</v>
@@ -8044,13 +8065,13 @@
         <v>88500</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>642</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8086,13 @@
         <v>168930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="H33" s="7">
         <v>141</v>
@@ -8080,13 +8101,13 @@
         <v>147505</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="M33" s="7">
         <v>301</v>
@@ -8095,13 +8116,13 @@
         <v>316435</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,13 +8137,13 @@
         <v>34306</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="H34" s="7">
         <v>26</v>
@@ -8131,13 +8152,13 @@
         <v>28245</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="M34" s="7">
         <v>56</v>
@@ -8146,13 +8167,13 @@
         <v>62551</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>660</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,13 +8241,13 @@
         <v>257936</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="H36" s="7">
         <v>188</v>
@@ -8235,13 +8256,13 @@
         <v>198234</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>154</v>
+        <v>675</v>
       </c>
       <c r="M36" s="7">
         <v>429</v>
@@ -8250,13 +8271,13 @@
         <v>456170</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>184</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,13 +8292,13 @@
         <v>772532</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>59</v>
+        <v>678</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>668</v>
+        <v>168</v>
       </c>
       <c r="H37" s="7">
         <v>582</v>
@@ -8286,13 +8307,13 @@
         <v>595473</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>670</v>
+        <v>169</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="M37" s="7">
         <v>1302</v>
@@ -8301,13 +8322,13 @@
         <v>1368005</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,13 +8343,13 @@
         <v>139871</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>676</v>
+        <v>156</v>
       </c>
       <c r="H38" s="7">
         <v>117</v>
@@ -8337,13 +8358,13 @@
         <v>122575</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>447</v>
+        <v>312</v>
       </c>
       <c r="M38" s="7">
         <v>244</v>
@@ -8352,13 +8373,13 @@
         <v>262446</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>678</v>
+        <v>43</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>680</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8414,7 +8435,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5F06476-B29E-40A2-8677-D106FC960BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A833091F-B140-426C-A8D8-06640C28A64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1BB81A49-3ABA-4DCA-9189-B6E324DFF489}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{334EBD68-AC1A-405D-91AA-F0D177CD3A85}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="712">
   <si>
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -829,7 +829,82 @@
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
   </si>
   <si>
     <t>36,5%</t>
@@ -991,1081 +1066,1078 @@
     <t>26,41%</t>
   </si>
   <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>21,86%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
   </si>
   <si>
     <t>20,13%</t>
@@ -2513,7 +2585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A4AB0-D17C-4D7D-8176-E63100EA8497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38F0FF1-8729-43D0-9465-DA764A15AE33}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4503,7 +4575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9271E9-C915-4497-92D9-E4F543F6C5B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8593936E-93BB-4FA3-9FF2-832E076A4629}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4621,43 +4693,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="D4" s="7">
+        <v>51160</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>26888</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="N4" s="7">
+        <v>78048</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,43 +4744,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D5" s="7">
+        <v>54444</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="I5" s="7">
+        <v>38400</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="N5" s="7">
+        <v>92844</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,43 +4795,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D6" s="7">
+        <v>30876</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I6" s="7">
+        <v>32643</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>263</v>
+        <v>83</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="N6" s="7">
+        <v>63519</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,43 +4846,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="D7" s="7">
+        <v>136480</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="I7" s="7">
+        <v>97931</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="N7" s="7">
+        <v>234411</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4905,13 @@
         <v>75603</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -4824,13 +4920,13 @@
         <v>46898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -4839,13 +4935,13 @@
         <v>122501</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,13 +4956,13 @@
         <v>89593</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="H9" s="7">
         <v>60</v>
@@ -4875,13 +4971,13 @@
         <v>67162</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="M9" s="7">
         <v>143</v>
@@ -4890,13 +4986,13 @@
         <v>156755</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +5007,13 @@
         <v>41945</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4926,13 +5022,13 @@
         <v>37158</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -4941,13 +5037,13 @@
         <v>79102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5111,13 @@
         <v>42589</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -5030,13 +5126,13 @@
         <v>25527</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -5045,13 +5141,13 @@
         <v>68116</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5162,13 @@
         <v>62230</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -5081,13 +5177,13 @@
         <v>40872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -5096,13 +5192,13 @@
         <v>103103</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5213,13 @@
         <v>22218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -5132,13 +5228,13 @@
         <v>21034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -5147,13 +5243,13 @@
         <v>43252</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,49 +5311,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>90782</v>
+        <v>39622</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>343</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>59898</v>
+        <v>33010</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="N16" s="7">
-        <v>150680</v>
+        <v>72632</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,49 +5362,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7">
-        <v>127515</v>
+        <v>73071</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I17" s="7">
-        <v>88594</v>
+        <v>50194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="N17" s="7">
-        <v>216109</v>
+        <v>123265</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,49 +5413,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>49169</v>
+        <v>18293</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>360</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="H18" s="7">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I18" s="7">
-        <v>53422</v>
+        <v>20779</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="M18" s="7">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="N18" s="7">
-        <v>102591</v>
+        <v>39073</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,10 +5464,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>249</v>
+        <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>267466</v>
+        <v>130986</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5383,10 +5479,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="I19" s="7">
-        <v>201914</v>
+        <v>103984</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5398,10 +5494,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>433</v>
+        <v>218</v>
       </c>
       <c r="N19" s="7">
-        <v>469380</v>
+        <v>234969</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5427,13 +5523,13 @@
         <v>32795</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -5442,13 +5538,13 @@
         <v>14434</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -5457,13 +5553,13 @@
         <v>47229</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5574,13 @@
         <v>49367</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="H21" s="7">
         <v>35</v>
@@ -5493,13 +5589,13 @@
         <v>37162</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="M21" s="7">
         <v>81</v>
@@ -5508,13 +5604,13 @@
         <v>86529</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5625,13 @@
         <v>9238</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5544,13 +5640,13 @@
         <v>13844</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -5559,13 +5655,13 @@
         <v>23081</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5729,13 @@
         <v>33893</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5648,13 +5744,13 @@
         <v>16768</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -5663,13 +5759,13 @@
         <v>50661</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5780,13 @@
         <v>37566</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5699,13 +5795,13 @@
         <v>34462</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -5714,13 +5810,13 @@
         <v>72028</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5831,13 @@
         <v>12281</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -5750,13 +5846,13 @@
         <v>15649</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -5765,13 +5861,13 @@
         <v>27930</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5935,13 @@
         <v>73594</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="H28" s="7">
         <v>63</v>
@@ -5854,13 +5950,13 @@
         <v>68893</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="M28" s="7">
         <v>131</v>
@@ -5869,13 +5965,13 @@
         <v>142487</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5986,13 @@
         <v>166815</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="H29" s="7">
         <v>85</v>
@@ -5905,13 +6001,13 @@
         <v>92230</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="M29" s="7">
         <v>244</v>
@@ -5920,13 +6016,13 @@
         <v>259045</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +6037,13 @@
         <v>39784</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -5962,7 +6058,7 @@
         <v>232</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -5971,13 +6067,13 @@
         <v>73212</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>253</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6141,13 @@
         <v>56806</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -6060,13 +6156,13 @@
         <v>25770</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="M32" s="7">
         <v>73</v>
@@ -6075,13 +6171,13 @@
         <v>82576</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6192,13 @@
         <v>197089</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="H33" s="7">
         <v>138</v>
@@ -6111,13 +6207,13 @@
         <v>151584</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="M33" s="7">
         <v>323</v>
@@ -6126,13 +6222,13 @@
         <v>348672</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6243,13 @@
         <v>42259</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -6162,13 +6258,13 @@
         <v>31482</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="M34" s="7">
         <v>68</v>
@@ -6177,13 +6273,13 @@
         <v>73741</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6347,13 @@
         <v>406062</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="H36" s="7">
         <v>237</v>
@@ -6266,13 +6362,13 @@
         <v>258188</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="M36" s="7">
         <v>612</v>
@@ -6281,13 +6377,13 @@
         <v>664250</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,13 +6398,13 @@
         <v>730176</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="H37" s="7">
         <v>472</v>
@@ -6317,13 +6413,13 @@
         <v>512066</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="M37" s="7">
         <v>1163</v>
@@ -6332,13 +6428,13 @@
         <v>1242242</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6449,13 @@
         <v>216894</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>252</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="H38" s="7">
         <v>189</v>
@@ -6368,13 +6464,13 @@
         <v>206016</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="M38" s="7">
         <v>391</v>
@@ -6383,13 +6479,13 @@
         <v>422910</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>467</v>
+        <v>365</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,7 +6565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7539C5B-CDAE-4DF4-90E6-AD3DA01817D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0353CB-B1A8-4AD6-8AD6-58EE4D9AA7D9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6486,7 +6582,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6593,13 +6689,13 @@
         <v>39037</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -6608,13 +6704,13 @@
         <v>23763</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>474</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -6623,13 +6719,13 @@
         <v>62799</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6740,13 @@
         <v>42267</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -6659,13 +6755,13 @@
         <v>30082</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
@@ -6674,13 +6770,13 @@
         <v>72349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,13 +6791,13 @@
         <v>24191</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -6710,13 +6806,13 @@
         <v>19869</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -6725,13 +6821,13 @@
         <v>44060</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,13 +6895,13 @@
         <v>32973</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -6814,13 +6910,13 @@
         <v>27974</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -6829,13 +6925,13 @@
         <v>60947</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6946,13 @@
         <v>156706</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -6865,13 +6961,13 @@
         <v>96775</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="M9" s="7">
         <v>238</v>
@@ -6880,13 +6976,13 @@
         <v>253480</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6997,13 @@
         <v>18346</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -6916,13 +7012,13 @@
         <v>15123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -6931,13 +7027,13 @@
         <v>33469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,7 +7075,7 @@
         <v>327</v>
       </c>
       <c r="N11" s="7">
-        <v>347896</v>
+        <v>347897</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7005,13 +7101,13 @@
         <v>9885</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -7020,13 +7116,13 @@
         <v>13265</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -7035,13 +7131,13 @@
         <v>23150</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7152,13 @@
         <v>77041</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -7071,13 +7167,13 @@
         <v>63215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -7086,13 +7182,13 @@
         <v>140256</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7203,13 @@
         <v>9405</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7122,13 +7218,13 @@
         <v>4923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -7137,13 +7233,13 @@
         <v>14328</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7307,13 @@
         <v>44285</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -7226,13 +7322,13 @@
         <v>35648</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -7241,13 +7337,13 @@
         <v>79933</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7358,13 @@
         <v>82898</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -7277,13 +7373,13 @@
         <v>53153</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -7292,13 +7388,13 @@
         <v>136050</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,10 +7412,10 @@
         <v>227</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -7328,13 +7424,13 @@
         <v>19957</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -7343,10 +7439,10 @@
         <v>32061</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>60</v>
@@ -7417,13 +7513,13 @@
         <v>10738</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7432,13 +7528,13 @@
         <v>8920</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -7447,13 +7543,13 @@
         <v>19658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,13 +7564,13 @@
         <v>69051</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="H21" s="7">
         <v>47</v>
@@ -7483,13 +7579,13 @@
         <v>44078</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -7498,13 +7594,13 @@
         <v>113129</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7615,13 @@
         <v>3320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -7534,13 +7630,13 @@
         <v>2758</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -7549,13 +7645,13 @@
         <v>6078</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,13 +7719,13 @@
         <v>11264</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7638,13 +7734,13 @@
         <v>5679</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -7653,13 +7749,13 @@
         <v>16943</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,13 +7770,13 @@
         <v>54918</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -7689,13 +7785,13 @@
         <v>56056</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -7704,13 +7800,13 @@
         <v>110975</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,13 +7821,13 @@
         <v>21044</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>228</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -7740,10 +7836,10 @@
         <v>10305</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>62</v>
@@ -7755,13 +7851,13 @@
         <v>31349</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,13 +7925,13 @@
         <v>58852</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -7844,13 +7940,13 @@
         <v>45387</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="M28" s="7">
         <v>94</v>
@@ -7859,13 +7955,13 @@
         <v>104239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,13 +7976,13 @@
         <v>120722</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="H29" s="7">
         <v>101</v>
@@ -7895,13 +7991,13 @@
         <v>104610</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="M29" s="7">
         <v>204</v>
@@ -7910,13 +8006,13 @@
         <v>225331</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,13 +8027,13 @@
         <v>17156</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -7946,13 +8042,13 @@
         <v>21395</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -7961,13 +8057,13 @@
         <v>38550</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,13 +8131,13 @@
         <v>50902</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>647</v>
+        <v>670</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>241</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>648</v>
+        <v>671</v>
       </c>
       <c r="H32" s="7">
         <v>36</v>
@@ -8053,10 +8149,10 @@
         <v>256</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="M32" s="7">
         <v>85</v>
@@ -8065,13 +8161,13 @@
         <v>88500</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>652</v>
+        <v>675</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8086,13 +8182,13 @@
         <v>168930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>653</v>
+        <v>676</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
       <c r="H33" s="7">
         <v>141</v>
@@ -8101,13 +8197,13 @@
         <v>147505</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
       <c r="M33" s="7">
         <v>301</v>
@@ -8116,13 +8212,13 @@
         <v>316435</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>659</v>
+        <v>682</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,13 +8233,13 @@
         <v>34306</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>664</v>
+        <v>687</v>
       </c>
       <c r="H34" s="7">
         <v>26</v>
@@ -8152,13 +8248,13 @@
         <v>28245</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>665</v>
+        <v>688</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>666</v>
+        <v>689</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>667</v>
+        <v>690</v>
       </c>
       <c r="M34" s="7">
         <v>56</v>
@@ -8167,10 +8263,10 @@
         <v>62551</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>104</v>
@@ -8241,13 +8337,13 @@
         <v>257936</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="H36" s="7">
         <v>188</v>
@@ -8256,13 +8352,13 @@
         <v>198234</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="M36" s="7">
         <v>429</v>
@@ -8271,13 +8367,13 @@
         <v>456170</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>338</v>
+        <v>699</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8292,10 +8388,10 @@
         <v>772532</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>168</v>
@@ -8307,13 +8403,13 @@
         <v>595473</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>169</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="M37" s="7">
         <v>1302</v>
@@ -8322,13 +8418,13 @@
         <v>1368005</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>682</v>
+        <v>706</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,7 +8442,7 @@
         <v>232</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>156</v>
@@ -8358,13 +8454,13 @@
         <v>122575</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="M38" s="7">
         <v>244</v>
@@ -8376,7 +8472,7 @@
         <v>43</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>687</v>
+        <v>711</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>49</v>
